--- a/bet/橙子.xlsx
+++ b/bet/橙子.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>罗瑟汉姆+0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔夫斯堡-0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔夫斯堡 VS 那不勒斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁日 VS 迪尼普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪尼普+0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,7 +524,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,8 +549,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>42107.964016203703</v>
       </c>
@@ -553,7 +580,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>42107.964016203703</v>
       </c>
@@ -580,7 +607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>42109.018287037034</v>
       </c>
@@ -607,7 +634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>42109.951215277775</v>
       </c>
@@ -634,9 +661,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>42110.951215219909</v>
+        <v>42109.951215277775</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -661,10 +688,76 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>42110.949131944442</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>G7-F7</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>42110.949131944442</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2">
+        <v>124</v>
+      </c>
+      <c r="H8" s="6">
+        <f>G8-F8</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F39" s="2">
+        <f>SUM(F2:F38)</f>
+        <v>600</v>
+      </c>
+      <c r="G39" s="2">
+        <f>SUM(G2:G38)</f>
+        <v>717.5</v>
+      </c>
       <c r="H39" s="6">
         <f>SUM(H2:H38)</f>
-        <v>153.5</v>
+        <v>117.5</v>
+      </c>
+      <c r="I39" s="2">
+        <f>(H39 / F39) * 100</f>
+        <v>19.583333333333332</v>
       </c>
     </row>
   </sheetData>
